--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F2960C2F-0BB0-48DA-8EDD-9548FD5C8E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356FDF2-F1AE-42CD-AB14-292726F1FE4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Opret et Gantt-diagram i dette regneark.
 Angiv titlen på projektet i celle B1. 
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Opgave 5</t>
-  </si>
-  <si>
-    <t>Titel 3</t>
   </si>
   <si>
     <t>Titel 4</t>
@@ -205,10 +202,31 @@
     <t>Læs om hand-eye kalibrering med OpenCV</t>
   </si>
   <si>
-    <t>Konkludere på initiel research og beslut metoder</t>
+    <t>Installer OpenCV med Eclipse</t>
   </si>
   <si>
-    <t>Implementering af metoder</t>
+    <t>Implementering af ChaRuCo</t>
+  </si>
+  <si>
+    <t>Lav kalibreringsprogram med ChaRuCo data</t>
+  </si>
+  <si>
+    <t>Lav kalibreringsprogram med opencv data (Skakbræt)</t>
+  </si>
+  <si>
+    <t>Konkludere på initiel research og test metoder</t>
+  </si>
+  <si>
+    <t>Implementering af Hand-eye Kalibrering</t>
+  </si>
+  <si>
+    <t>Implementering af kamera kalibreringsmetoder</t>
+  </si>
+  <si>
+    <t>Konkludere på kamera kalibreringsmetoder</t>
+  </si>
+  <si>
+    <t>Lav Hand-eye kalibrering med ChaRuCo data</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1270,8 @@
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>63</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>112</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -1590,8 +1608,8 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1638,7 @@
       <c r="F1"/>
       <c r="G1" s="7"/>
       <c r="I1" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="20"/>
@@ -1658,34 +1676,34 @@
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
       <c r="I2" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
       <c r="L2" s="60"/>
       <c r="N2" s="61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="61"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
       <c r="R2" s="20"/>
       <c r="S2" s="62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T2" s="62"/>
       <c r="U2" s="62"/>
       <c r="V2" s="62"/>
       <c r="W2" s="20"/>
       <c r="X2" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" s="53"/>
       <c r="Z2" s="53"/>
       <c r="AA2" s="53"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="54"/>
       <c r="AE2" s="54"/>
@@ -1700,7 +1718,7 @@
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="58">
@@ -1714,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="41">
@@ -2113,19 +2131,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>35</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="25" t="str">
@@ -2425,7 +2443,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -2434,240 +2452,240 @@
       <c r="G9" s="20"/>
       <c r="H9" s="26"/>
       <c r="I9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="I9:R19" ca="1" si="6">IF(AND($C9="Mål",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="J9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",J$5&gt;=$F9,J$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",J$5&gt;=$F9,J$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",K$5&gt;=$F9,K$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",K$5&gt;=$F9,K$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",L$5&gt;=$F9,L$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",L$5&gt;=$F9,L$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",M$5&gt;=$F9,M$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",M$5&gt;=$F9,M$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",N$5&gt;=$F9,N$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",N$5&gt;=$F9,N$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",O$5&gt;=$F9,O$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",O$5&gt;=$F9,O$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",P$5&gt;=$F9,P$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",P$5&gt;=$F9,P$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",Q$5&gt;=$F9,Q$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",Q$5&gt;=$F9,Q$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",R$5&gt;=$F9,R$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",R$5&gt;=$F9,R$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",S$5&gt;=$F9,S$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",S$5&gt;=$F9,S$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="S9:AB19" ca="1" si="7">IF(AND($C9="Mål",S$5&gt;=$F9,S$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",S$5&gt;=$F9,S$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="T9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",T$5&gt;=$F9,T$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",T$5&gt;=$F9,T$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",U$5&gt;=$F9,U$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",U$5&gt;=$F9,U$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",V$5&gt;=$F9,V$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",V$5&gt;=$F9,V$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",W$5&gt;=$F9,W$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",W$5&gt;=$F9,W$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",X$5&gt;=$F9,X$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",X$5&gt;=$F9,X$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",Z$5&gt;=$F9,Z$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",Z$5&gt;=$F9,Z$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AA$5&gt;=$F9,AA$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AA$5&gt;=$F9,AA$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AB$5&gt;=$F9,AB$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AB$5&gt;=$F9,AB$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AC$5&gt;=$F9,AC$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AC$5&gt;=$F9,AC$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="AC9:AL19" ca="1" si="8">IF(AND($C9="Mål",AC$5&gt;=$F9,AC$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AC$5&gt;=$F9,AC$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="AD9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AD$5&gt;=$F9,AD$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AD$5&gt;=$F9,AD$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AE$5&gt;=$F9,AE$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AE$5&gt;=$F9,AE$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AF$5&gt;=$F9,AF$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AF$5&gt;=$F9,AF$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AG$5&gt;=$F9,AG$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AG$5&gt;=$F9,AG$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AH$5&gt;=$F9,AH$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AH$5&gt;=$F9,AH$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AI$5&gt;=$F9,AI$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AI$5&gt;=$F9,AI$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AJ$5&gt;=$F9,AJ$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AJ$5&gt;=$F9,AJ$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AK$5&gt;=$F9,AK$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AK$5&gt;=$F9,AK$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AL$5&gt;=$F9,AL$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AL$5&gt;=$F9,AL$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AM$5&gt;=$F9,AM$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AM$5&gt;=$F9,AM$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="AM9:AV19" ca="1" si="9">IF(AND($C9="Mål",AM$5&gt;=$F9,AM$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AM$5&gt;=$F9,AM$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="AN9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AN$5&gt;=$F9,AN$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AN$5&gt;=$F9,AN$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AP$5&gt;=$F9,AP$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AP$5&gt;=$F9,AP$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AQ$5&gt;=$F9,AQ$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AQ$5&gt;=$F9,AQ$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AR$5&gt;=$F9,AR$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AR$5&gt;=$F9,AR$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AS$5&gt;=$F9,AS$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AS$5&gt;=$F9,AS$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AT$5&gt;=$F9,AT$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AT$5&gt;=$F9,AT$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AU$5&gt;=$F9,AU$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AU$5&gt;=$F9,AU$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AV$5&gt;=$F9,AV$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AV$5&gt;=$F9,AV$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AW$5&gt;=$F9,AW$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AW$5&gt;=$F9,AW$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="AW9:BF19" ca="1" si="10">IF(AND($C9="Mål",AW$5&gt;=$F9,AW$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AW$5&gt;=$F9,AW$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="AX9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AX$5&gt;=$F9,AX$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AX$5&gt;=$F9,AX$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AY$5&gt;=$F9,AY$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AY$5&gt;=$F9,AY$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",AZ$5&gt;=$F9,AZ$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",AZ$5&gt;=$F9,AZ$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BA$5&gt;=$F9,BA$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BA$5&gt;=$F9,BA$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BB$5&gt;=$F9,BB$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BB$5&gt;=$F9,BB$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BC$5&gt;=$F9,BC$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BC$5&gt;=$F9,BC$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BD$5&gt;=$F9,BD$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BD$5&gt;=$F9,BD$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BF$5&gt;=$F9,BF$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BF$5&gt;=$F9,BF$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BG$5&gt;=$F9,BG$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BG$5&gt;=$F9,BG$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="BG9:BL19" ca="1" si="11">IF(AND($C9="Mål",BG$5&gt;=$F9,BG$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BG$5&gt;=$F9,BG$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="BH9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BH$5&gt;=$F9,BH$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BH$5&gt;=$F9,BH$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BI$5&gt;=$F9,BI$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BI$5&gt;=$F9,BI$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BJ$5&gt;=$F9,BJ$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BJ$5&gt;=$F9,BJ$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BK$5&gt;=$F9,BK$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BK$5&gt;=$F9,BK$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL9" s="37" t="str">
-        <f ca="1">IF(AND($C9="Mål",BL$5&gt;=$F9,BL$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milepæl",BL$5&gt;=$F9,BL$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="30">
         <v>1</v>
@@ -2681,2428 +2699,2278 @@
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",J$5&gt;=$F10,J$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",J$5&gt;=$F10,J$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",K$5&gt;=$F10,K$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",K$5&gt;=$F10,K$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",L$5&gt;=$F10,L$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",L$5&gt;=$F10,L$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",M$5&gt;=$F10,M$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",M$5&gt;=$F10,M$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",N$5&gt;=$F10,N$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",N$5&gt;=$F10,N$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",O$5&gt;=$F10,O$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",O$5&gt;=$F10,O$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",P$5&gt;=$F10,P$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",P$5&gt;=$F10,P$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",Q$5&gt;=$F10,Q$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",Q$5&gt;=$F10,Q$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",R$5&gt;=$F10,R$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",R$5&gt;=$F10,R$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",S$5&gt;=$F10,S$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",S$5&gt;=$F10,S$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",T$5&gt;=$F10,T$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",T$5&gt;=$F10,T$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",U$5&gt;=$F10,U$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",U$5&gt;=$F10,U$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",V$5&gt;=$F10,V$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",V$5&gt;=$F10,V$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",W$5&gt;=$F10,W$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",W$5&gt;=$F10,W$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",X$5&gt;=$F10,X$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",X$5&gt;=$F10,X$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",Y$5&gt;=$F10,Y$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",Y$5&gt;=$F10,Y$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",Z$5&gt;=$F10,Z$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",Z$5&gt;=$F10,Z$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AA$5&gt;=$F10,AA$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AA$5&gt;=$F10,AA$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AB$5&gt;=$F10,AB$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AB$5&gt;=$F10,AB$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AC$5&gt;=$F10,AC$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AC$5&gt;=$F10,AC$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AD$5&gt;=$F10,AD$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AD$5&gt;=$F10,AD$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AE$5&gt;=$F10,AE$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AE$5&gt;=$F10,AE$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AF$5&gt;=$F10,AF$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AF$5&gt;=$F10,AF$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AG$5&gt;=$F10,AG$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AG$5&gt;=$F10,AG$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AH$5&gt;=$F10,AH$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AH$5&gt;=$F10,AH$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AI$5&gt;=$F10,AI$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AI$5&gt;=$F10,AI$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AJ$5&gt;=$F10,AJ$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AJ$5&gt;=$F10,AJ$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AK$5&gt;=$F10,AK$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AK$5&gt;=$F10,AK$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AL$5&gt;=$F10,AL$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AL$5&gt;=$F10,AL$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AM$5&gt;=$F10,AM$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AM$5&gt;=$F10,AM$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AN$5&gt;=$F10,AN$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AN$5&gt;=$F10,AN$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AO$5&gt;=$F10,AO$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AO$5&gt;=$F10,AO$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AP$5&gt;=$F10,AP$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AP$5&gt;=$F10,AP$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AQ$5&gt;=$F10,AQ$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AQ$5&gt;=$F10,AQ$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AR$5&gt;=$F10,AR$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AR$5&gt;=$F10,AR$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AS$5&gt;=$F10,AS$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AS$5&gt;=$F10,AS$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AT$5&gt;=$F10,AT$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AT$5&gt;=$F10,AT$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AU$5&gt;=$F10,AU$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AU$5&gt;=$F10,AU$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AV$5&gt;=$F10,AV$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AV$5&gt;=$F10,AV$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AW$5&gt;=$F10,AW$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AW$5&gt;=$F10,AW$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AX$5&gt;=$F10,AX$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AX$5&gt;=$F10,AX$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AY$5&gt;=$F10,AY$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AY$5&gt;=$F10,AY$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",AZ$5&gt;=$F10,AZ$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",AZ$5&gt;=$F10,AZ$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BA$5&gt;=$F10,BA$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BA$5&gt;=$F10,BA$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BB$5&gt;=$F10,BB$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BB$5&gt;=$F10,BB$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BC$5&gt;=$F10,BC$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BC$5&gt;=$F10,BC$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BD$5&gt;=$F10,BD$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BD$5&gt;=$F10,BD$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BE$5&gt;=$F10,BE$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BE$5&gt;=$F10,BE$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BF$5&gt;=$F10,BF$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BF$5&gt;=$F10,BF$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BG$5&gt;=$F10,BG$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BG$5&gt;=$F10,BG$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BH$5&gt;=$F10,BH$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BH$5&gt;=$F10,BH$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BI$5&gt;=$F10,BI$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BI$5&gt;=$F10,BI$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BJ$5&gt;=$F10,BJ$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BJ$5&gt;=$F10,BJ$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BK$5&gt;=$F10,BK$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BK$5&gt;=$F10,BK$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL10" s="37" t="str">
-        <f ca="1">IF(AND($C10="Mål",BL$5&gt;=$F10,BL$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milepæl",BL$5&gt;=$F10,BL$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="31">
         <f>F10</f>
         <v>44256</v>
       </c>
       <c r="G11" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",J$5&gt;=$F11,J$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",J$5&gt;=$F11,J$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",K$5&gt;=$F11,K$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",K$5&gt;=$F11,K$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",L$5&gt;=$F11,L$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",L$5&gt;=$F11,L$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",M$5&gt;=$F11,M$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",M$5&gt;=$F11,M$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",N$5&gt;=$F11,N$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",N$5&gt;=$F11,N$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",O$5&gt;=$F11,O$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",O$5&gt;=$F11,O$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="P11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",P$5&gt;=$F11,P$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",P$5&gt;=$F11,P$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Q11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",Q$5&gt;=$F11,Q$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",Q$5&gt;=$F11,Q$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="R11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",R$5&gt;=$F11,R$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",R$5&gt;=$F11,R$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="S11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",S$5&gt;=$F11,S$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",S$5&gt;=$F11,S$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",T$5&gt;=$F11,T$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",T$5&gt;=$F11,T$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",U$5&gt;=$F11,U$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",U$5&gt;=$F11,U$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="V11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",V$5&gt;=$F11,V$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",V$5&gt;=$F11,V$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",W$5&gt;=$F11,W$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",W$5&gt;=$F11,W$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",X$5&gt;=$F11,X$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",X$5&gt;=$F11,X$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",Y$5&gt;=$F11,Y$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",Y$5&gt;=$F11,Y$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",Z$5&gt;=$F11,Z$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",Z$5&gt;=$F11,Z$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AA$5&gt;=$F11,AA$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AA$5&gt;=$F11,AA$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AB11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AB$5&gt;=$F11,AB$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AB$5&gt;=$F11,AB$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AC$5&gt;=$F11,AC$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AC$5&gt;=$F11,AC$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AD$5&gt;=$F11,AD$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AD$5&gt;=$F11,AD$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AE$5&gt;=$F11,AE$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AE$5&gt;=$F11,AE$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AF11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AF$5&gt;=$F11,AF$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AF$5&gt;=$F11,AF$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AG11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AG$5&gt;=$F11,AG$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AG$5&gt;=$F11,AG$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AH11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AH$5&gt;=$F11,AH$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AH$5&gt;=$F11,AH$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AI11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AI$5&gt;=$F11,AI$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AI$5&gt;=$F11,AI$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AJ11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AJ$5&gt;=$F11,AJ$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AJ$5&gt;=$F11,AJ$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AK11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AK$5&gt;=$F11,AK$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AK$5&gt;=$F11,AK$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AL11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AL$5&gt;=$F11,AL$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AL$5&gt;=$F11,AL$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AM11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AM$5&gt;=$F11,AM$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AM$5&gt;=$F11,AM$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AN11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AN$5&gt;=$F11,AN$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AN$5&gt;=$F11,AN$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AO$5&gt;=$F11,AO$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AO$5&gt;=$F11,AO$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AP$5&gt;=$F11,AP$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AP$5&gt;=$F11,AP$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AQ$5&gt;=$F11,AQ$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AQ$5&gt;=$F11,AQ$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AR11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AR$5&gt;=$F11,AR$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AR$5&gt;=$F11,AR$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AS$5&gt;=$F11,AS$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AS$5&gt;=$F11,AS$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AT$5&gt;=$F11,AT$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AT$5&gt;=$F11,AT$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AU11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AU$5&gt;=$F11,AU$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AU$5&gt;=$F11,AU$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AV11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AV$5&gt;=$F11,AV$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AV$5&gt;=$F11,AV$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AW11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AW$5&gt;=$F11,AW$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AW$5&gt;=$F11,AW$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AX$5&gt;=$F11,AX$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AX$5&gt;=$F11,AX$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AY$5&gt;=$F11,AY$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AY$5&gt;=$F11,AY$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",AZ$5&gt;=$F11,AZ$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",AZ$5&gt;=$F11,AZ$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BA$5&gt;=$F11,BA$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BA$5&gt;=$F11,BA$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BB11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BB$5&gt;=$F11,BB$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BB$5&gt;=$F11,BB$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BC11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BC$5&gt;=$F11,BC$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BC$5&gt;=$F11,BC$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BD$5&gt;=$F11,BD$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BD$5&gt;=$F11,BD$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BE$5&gt;=$F11,BE$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BE$5&gt;=$F11,BE$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BF$5&gt;=$F11,BF$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BF$5&gt;=$F11,BF$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BG$5&gt;=$F11,BG$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BG$5&gt;=$F11,BG$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BH$5&gt;=$F11,BH$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BH$5&gt;=$F11,BH$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BI$5&gt;=$F11,BI$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BI$5&gt;=$F11,BI$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BJ11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BJ$5&gt;=$F11,BJ$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BJ$5&gt;=$F11,BJ$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BK$5&gt;=$F11,BK$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BK$5&gt;=$F11,BK$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BL11" s="37" t="str">
-        <f ca="1">IF(AND($C11="Mål",BL$5&gt;=$F11,BL$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milepæl",BL$5&gt;=$F11,BL$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
     </row>
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="30">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F12" s="31">
         <f>F10</f>
         <v>44256</v>
       </c>
       <c r="G12" s="32">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",T$5&gt;=$F12,T$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",T$5&gt;=$F12,T$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",U$5&gt;=$F12,U$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",U$5&gt;=$F12,U$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",V$5&gt;=$F12,V$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",V$5&gt;=$F12,V$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",W$5&gt;=$F12,W$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",W$5&gt;=$F12,W$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",X$5&gt;=$F12,X$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",X$5&gt;=$F12,X$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",Y$5&gt;=$F12,Y$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",Y$5&gt;=$F12,Y$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",Z$5&gt;=$F12,Z$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",Z$5&gt;=$F12,Z$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AA$5&gt;=$F12,AA$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AA$5&gt;=$F12,AA$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AB$5&gt;=$F12,AB$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AB$5&gt;=$F12,AB$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AC$5&gt;=$F12,AC$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AC$5&gt;=$F12,AC$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AD$5&gt;=$F12,AD$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AD$5&gt;=$F12,AD$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AE$5&gt;=$F12,AE$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AE$5&gt;=$F12,AE$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AF$5&gt;=$F12,AF$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AF$5&gt;=$F12,AF$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AG$5&gt;=$F12,AG$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AG$5&gt;=$F12,AG$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AH$5&gt;=$F12,AH$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AH$5&gt;=$F12,AH$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AI$5&gt;=$F12,AI$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AI$5&gt;=$F12,AI$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AJ$5&gt;=$F12,AJ$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AJ$5&gt;=$F12,AJ$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AK$5&gt;=$F12,AK$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AK$5&gt;=$F12,AK$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AL$5&gt;=$F12,AL$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AL$5&gt;=$F12,AL$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AM$5&gt;=$F12,AM$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AM$5&gt;=$F12,AM$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AN$5&gt;=$F12,AN$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AN$5&gt;=$F12,AN$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AO$5&gt;=$F12,AO$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AO$5&gt;=$F12,AO$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AP$5&gt;=$F12,AP$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AP$5&gt;=$F12,AP$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AQ$5&gt;=$F12,AQ$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AQ$5&gt;=$F12,AQ$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AR$5&gt;=$F12,AR$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AR$5&gt;=$F12,AR$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AS$5&gt;=$F12,AS$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AS$5&gt;=$F12,AS$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AT$5&gt;=$F12,AT$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AT$5&gt;=$F12,AT$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AU$5&gt;=$F12,AU$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AU$5&gt;=$F12,AU$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AV$5&gt;=$F12,AV$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AV$5&gt;=$F12,AV$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AW$5&gt;=$F12,AW$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AW$5&gt;=$F12,AW$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AX$5&gt;=$F12,AX$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AX$5&gt;=$F12,AX$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AY$5&gt;=$F12,AY$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AY$5&gt;=$F12,AY$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",AZ$5&gt;=$F12,AZ$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",AZ$5&gt;=$F12,AZ$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BA$5&gt;=$F12,BA$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BA$5&gt;=$F12,BA$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BB$5&gt;=$F12,BB$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BB$5&gt;=$F12,BB$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BC$5&gt;=$F12,BC$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BC$5&gt;=$F12,BC$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BD$5&gt;=$F12,BD$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BD$5&gt;=$F12,BD$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BE$5&gt;=$F12,BE$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BE$5&gt;=$F12,BE$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BF$5&gt;=$F12,BF$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BF$5&gt;=$F12,BF$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BG$5&gt;=$F12,BG$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BG$5&gt;=$F12,BG$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BH$5&gt;=$F12,BH$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BH$5&gt;=$F12,BH$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BI$5&gt;=$F12,BI$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BI$5&gt;=$F12,BI$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BJ$5&gt;=$F12,BJ$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BJ$5&gt;=$F12,BJ$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BK$5&gt;=$F12,BK$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BK$5&gt;=$F12,BK$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL12" s="37" t="str">
-        <f ca="1">IF(AND($C12="Mål",BL$5&gt;=$F12,BL$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milepæl",BL$5&gt;=$F12,BL$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="30"/>
+        <v>44</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.75</v>
+      </c>
       <c r="F13" s="31">
-        <f>F10+G12</f>
-        <v>44261</v>
+        <f>F10</f>
+        <v>44256</v>
       </c>
       <c r="G13" s="32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",J$5&gt;=$F13,J$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",J$5&gt;=$F13,J$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",K$5&gt;=$F13,K$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",K$5&gt;=$F13,K$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",L$5&gt;=$F13,L$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",L$5&gt;=$F13,L$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",M$5&gt;=$F13,M$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",M$5&gt;=$F13,M$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N13" s="37">
-        <f ca="1">IF(AND($C13="Mål",N$5&gt;=$F13,N$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",N$5&gt;=$F13,N$5&lt;=$F13+$G13-1),1,""))</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N13" s="37" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
       <c r="O13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",O$5&gt;=$F13,O$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",O$5&gt;=$F13,O$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",P$5&gt;=$F13,P$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",P$5&gt;=$F13,P$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",Q$5&gt;=$F13,Q$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",Q$5&gt;=$F13,Q$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",R$5&gt;=$F13,R$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",R$5&gt;=$F13,R$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",S$5&gt;=$F13,S$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",S$5&gt;=$F13,S$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",T$5&gt;=$F13,T$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",T$5&gt;=$F13,T$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",U$5&gt;=$F13,U$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",U$5&gt;=$F13,U$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",V$5&gt;=$F13,V$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",V$5&gt;=$F13,V$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",W$5&gt;=$F13,W$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",W$5&gt;=$F13,W$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",Y$5&gt;=$F13,Y$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",Y$5&gt;=$F13,Y$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",Z$5&gt;=$F13,Z$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",Z$5&gt;=$F13,Z$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AA$5&gt;=$F13,AA$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AA$5&gt;=$F13,AA$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AB$5&gt;=$F13,AB$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AB$5&gt;=$F13,AB$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AC$5&gt;=$F13,AC$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AC$5&gt;=$F13,AC$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AD$5&gt;=$F13,AD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AD$5&gt;=$F13,AD$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AE$5&gt;=$F13,AE$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AE$5&gt;=$F13,AE$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AF$5&gt;=$F13,AF$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AF$5&gt;=$F13,AF$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AG$5&gt;=$F13,AG$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AG$5&gt;=$F13,AG$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AH$5&gt;=$F13,AH$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AH$5&gt;=$F13,AH$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AI$5&gt;=$F13,AI$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AI$5&gt;=$F13,AI$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AJ$5&gt;=$F13,AJ$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AJ$5&gt;=$F13,AJ$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AK$5&gt;=$F13,AK$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AK$5&gt;=$F13,AK$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AL$5&gt;=$F13,AL$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AL$5&gt;=$F13,AL$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AM$5&gt;=$F13,AM$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AM$5&gt;=$F13,AM$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AN$5&gt;=$F13,AN$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AN$5&gt;=$F13,AN$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AO$5&gt;=$F13,AO$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AO$5&gt;=$F13,AO$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AP$5&gt;=$F13,AP$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AP$5&gt;=$F13,AP$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AQ$5&gt;=$F13,AQ$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AQ$5&gt;=$F13,AQ$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AR$5&gt;=$F13,AR$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AR$5&gt;=$F13,AR$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AS$5&gt;=$F13,AS$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AS$5&gt;=$F13,AS$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AT$5&gt;=$F13,AT$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AT$5&gt;=$F13,AT$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AU$5&gt;=$F13,AU$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AU$5&gt;=$F13,AU$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AV$5&gt;=$F13,AV$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AV$5&gt;=$F13,AV$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AW$5&gt;=$F13,AW$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AW$5&gt;=$F13,AW$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AX$5&gt;=$F13,AX$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AX$5&gt;=$F13,AX$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AY$5&gt;=$F13,AY$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AY$5&gt;=$F13,AY$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",AZ$5&gt;=$F13,AZ$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",AZ$5&gt;=$F13,AZ$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BA$5&gt;=$F13,BA$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BA$5&gt;=$F13,BA$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BB$5&gt;=$F13,BB$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BB$5&gt;=$F13,BB$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BC$5&gt;=$F13,BC$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BC$5&gt;=$F13,BC$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BE$5&gt;=$F13,BE$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BE$5&gt;=$F13,BE$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BF$5&gt;=$F13,BF$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BF$5&gt;=$F13,BF$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BG$5&gt;=$F13,BG$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BG$5&gt;=$F13,BG$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BH$5&gt;=$F13,BH$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BH$5&gt;=$F13,BH$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BI$5&gt;=$F13,BI$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BI$5&gt;=$F13,BI$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BJ$5&gt;=$F13,BJ$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BJ$5&gt;=$F13,BJ$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BK$5&gt;=$F13,BK$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BK$5&gt;=$F13,BK$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL13" s="37" t="str">
-        <f ca="1">IF(AND($C13="Mål",BL$5&gt;=$F13,BL$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milepæl",BL$5&gt;=$F13,BL$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="31">
+        <f>F10+G13-1</f>
+        <v>44267</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1</v>
+      </c>
       <c r="H14" s="26"/>
       <c r="I14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",J$5&gt;=$F14,J$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",J$5&gt;=$F14,J$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",K$5&gt;=$F14,K$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",K$5&gt;=$F14,K$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",L$5&gt;=$F14,L$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",L$5&gt;=$F14,L$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",M$5&gt;=$F14,M$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",M$5&gt;=$F14,M$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",N$5&gt;=$F14,N$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",N$5&gt;=$F14,N$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",O$5&gt;=$F14,O$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",O$5&gt;=$F14,O$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",P$5&gt;=$F14,P$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",P$5&gt;=$F14,P$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",Q$5&gt;=$F14,Q$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",Q$5&gt;=$F14,Q$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",R$5&gt;=$F14,R$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",R$5&gt;=$F14,R$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",S$5&gt;=$F14,S$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",S$5&gt;=$F14,S$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",T$5&gt;=$F14,T$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",T$5&gt;=$F14,T$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="T14" s="37">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",U$5&gt;=$F14,U$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",U$5&gt;=$F14,U$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",V$5&gt;=$F14,V$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",V$5&gt;=$F14,V$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",W$5&gt;=$F14,W$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",W$5&gt;=$F14,W$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",X$5&gt;=$F14,X$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",X$5&gt;=$F14,X$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",Y$5&gt;=$F14,Y$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",Y$5&gt;=$F14,Y$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",Z$5&gt;=$F14,Z$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",Z$5&gt;=$F14,Z$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AA$5&gt;=$F14,AA$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AA$5&gt;=$F14,AA$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AB$5&gt;=$F14,AB$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AB$5&gt;=$F14,AB$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AC$5&gt;=$F14,AC$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AC$5&gt;=$F14,AC$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AD$5&gt;=$F14,AD$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AD$5&gt;=$F14,AD$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AE$5&gt;=$F14,AE$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AE$5&gt;=$F14,AE$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AF$5&gt;=$F14,AF$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AF$5&gt;=$F14,AF$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AG$5&gt;=$F14,AG$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AG$5&gt;=$F14,AG$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AH$5&gt;=$F14,AH$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AH$5&gt;=$F14,AH$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AI$5&gt;=$F14,AI$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AI$5&gt;=$F14,AI$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AJ$5&gt;=$F14,AJ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AJ$5&gt;=$F14,AJ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AK$5&gt;=$F14,AK$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AK$5&gt;=$F14,AK$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AL$5&gt;=$F14,AL$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AL$5&gt;=$F14,AL$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AM$5&gt;=$F14,AM$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AM$5&gt;=$F14,AM$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AN$5&gt;=$F14,AN$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AN$5&gt;=$F14,AN$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AO$5&gt;=$F14,AO$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AO$5&gt;=$F14,AO$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AP$5&gt;=$F14,AP$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AP$5&gt;=$F14,AP$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AQ$5&gt;=$F14,AQ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AQ$5&gt;=$F14,AQ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AR$5&gt;=$F14,AR$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AR$5&gt;=$F14,AR$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AS$5&gt;=$F14,AS$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AS$5&gt;=$F14,AS$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AT$5&gt;=$F14,AT$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AT$5&gt;=$F14,AT$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AU$5&gt;=$F14,AU$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AU$5&gt;=$F14,AU$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AV$5&gt;=$F14,AV$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AV$5&gt;=$F14,AV$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AW$5&gt;=$F14,AW$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AW$5&gt;=$F14,AW$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AX$5&gt;=$F14,AX$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AX$5&gt;=$F14,AX$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AY$5&gt;=$F14,AY$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AY$5&gt;=$F14,AY$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",AZ$5&gt;=$F14,AZ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",AZ$5&gt;=$F14,AZ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BA$5&gt;=$F14,BA$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BA$5&gt;=$F14,BA$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BB$5&gt;=$F14,BB$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BB$5&gt;=$F14,BB$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BC$5&gt;=$F14,BC$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BC$5&gt;=$F14,BC$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BD$5&gt;=$F14,BD$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BD$5&gt;=$F14,BD$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BE$5&gt;=$F14,BE$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BE$5&gt;=$F14,BE$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BF$5&gt;=$F14,BF$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BF$5&gt;=$F14,BF$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BG$5&gt;=$F14,BG$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BG$5&gt;=$F14,BG$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BH$5&gt;=$F14,BH$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BH$5&gt;=$F14,BH$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BI$5&gt;=$F14,BI$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BI$5&gt;=$F14,BI$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BJ$5&gt;=$F14,BJ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BJ$5&gt;=$F14,BJ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BK$5&gt;=$F14,BK$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BK$5&gt;=$F14,BK$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL14" s="37" t="str">
-        <f ca="1">IF(AND($C14="Mål",BL$5&gt;=$F14,BL$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milepæl",BL$5&gt;=$F14,BL$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="B15" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="F15" s="31">
-        <f>F10+6</f>
-        <v>44262</v>
-      </c>
-      <c r="G15" s="32">
-        <v>13</v>
-      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="26"/>
       <c r="I15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",J$5&gt;=$F15,J$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",J$5&gt;=$F15,J$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",K$5&gt;=$F15,K$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",K$5&gt;=$F15,K$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",L$5&gt;=$F15,L$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",L$5&gt;=$F15,L$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",M$5&gt;=$F15,M$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",M$5&gt;=$F15,M$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",N$5&gt;=$F15,N$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",N$5&gt;=$F15,N$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",O$5&gt;=$F15,O$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",O$5&gt;=$F15,O$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",P$5&gt;=$F15,P$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",P$5&gt;=$F15,P$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",Q$5&gt;=$F15,Q$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",Q$5&gt;=$F15,Q$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",R$5&gt;=$F15,R$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",R$5&gt;=$F15,R$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",S$5&gt;=$F15,S$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",S$5&gt;=$F15,S$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",T$5&gt;=$F15,T$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",T$5&gt;=$F15,T$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",U$5&gt;=$F15,U$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",U$5&gt;=$F15,U$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",V$5&gt;=$F15,V$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",V$5&gt;=$F15,V$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",W$5&gt;=$F15,W$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",W$5&gt;=$F15,W$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",X$5&gt;=$F15,X$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",X$5&gt;=$F15,X$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",Y$5&gt;=$F15,Y$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",Y$5&gt;=$F15,Y$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",Z$5&gt;=$F15,Z$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",Z$5&gt;=$F15,Z$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AA$5&gt;=$F15,AA$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AA$5&gt;=$F15,AA$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AB$5&gt;=$F15,AB$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AB$5&gt;=$F15,AB$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AC$5&gt;=$F15,AC$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AC$5&gt;=$F15,AC$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AD$5&gt;=$F15,AD$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AD$5&gt;=$F15,AD$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AE$5&gt;=$F15,AE$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AE$5&gt;=$F15,AE$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AF$5&gt;=$F15,AF$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AF$5&gt;=$F15,AF$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AG$5&gt;=$F15,AG$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AG$5&gt;=$F15,AG$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AH$5&gt;=$F15,AH$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AH$5&gt;=$F15,AH$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AI$5&gt;=$F15,AI$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AI$5&gt;=$F15,AI$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AJ$5&gt;=$F15,AJ$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AJ$5&gt;=$F15,AJ$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AK$5&gt;=$F15,AK$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AK$5&gt;=$F15,AK$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AL$5&gt;=$F15,AL$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AL$5&gt;=$F15,AL$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AM$5&gt;=$F15,AM$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AM$5&gt;=$F15,AM$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AN$5&gt;=$F15,AN$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AN$5&gt;=$F15,AN$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AO$5&gt;=$F15,AO$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AO$5&gt;=$F15,AO$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AP$5&gt;=$F15,AP$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AP$5&gt;=$F15,AP$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AQ$5&gt;=$F15,AQ$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AQ$5&gt;=$F15,AQ$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AR$5&gt;=$F15,AR$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AR$5&gt;=$F15,AR$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AS$5&gt;=$F15,AS$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AS$5&gt;=$F15,AS$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AT$5&gt;=$F15,AT$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AT$5&gt;=$F15,AT$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AU$5&gt;=$F15,AU$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AU$5&gt;=$F15,AU$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AV$5&gt;=$F15,AV$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AV$5&gt;=$F15,AV$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AW$5&gt;=$F15,AW$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AW$5&gt;=$F15,AW$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AX$5&gt;=$F15,AX$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AX$5&gt;=$F15,AX$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AY$5&gt;=$F15,AY$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AY$5&gt;=$F15,AY$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",AZ$5&gt;=$F15,AZ$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",AZ$5&gt;=$F15,AZ$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BA$5&gt;=$F15,BA$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BA$5&gt;=$F15,BA$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BB$5&gt;=$F15,BB$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BB$5&gt;=$F15,BB$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BC$5&gt;=$F15,BC$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BC$5&gt;=$F15,BC$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BD$5&gt;=$F15,BD$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BD$5&gt;=$F15,BD$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BE$5&gt;=$F15,BE$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BE$5&gt;=$F15,BE$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BF$5&gt;=$F15,BF$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BF$5&gt;=$F15,BF$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BG$5&gt;=$F15,BG$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BG$5&gt;=$F15,BG$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BH$5&gt;=$F15,BH$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BH$5&gt;=$F15,BH$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BI$5&gt;=$F15,BI$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BI$5&gt;=$F15,BI$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BJ$5&gt;=$F15,BJ$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BJ$5&gt;=$F15,BJ$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BK$5&gt;=$F15,BK$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BK$5&gt;=$F15,BK$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL15" s="37" t="str">
-        <f ca="1">IF(AND($C15="Mål",BL$5&gt;=$F15,BL$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milepæl",BL$5&gt;=$F15,BL$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="51" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F16" s="31">
-        <f>F15+2</f>
-        <v>44264</v>
+        <f>F14+G14</f>
+        <v>44268</v>
       </c>
       <c r="G16" s="32">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",J$5&gt;=$F16,J$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",J$5&gt;=$F16,J$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",K$5&gt;=$F16,K$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",K$5&gt;=$F16,K$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",L$5&gt;=$F16,L$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",L$5&gt;=$F16,L$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",M$5&gt;=$F16,M$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",M$5&gt;=$F16,M$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",N$5&gt;=$F16,N$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",N$5&gt;=$F16,N$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",O$5&gt;=$F16,O$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",O$5&gt;=$F16,O$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",Q$5&gt;=$F16,Q$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",Q$5&gt;=$F16,Q$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",R$5&gt;=$F16,R$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",R$5&gt;=$F16,R$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",T$5&gt;=$F16,T$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",T$5&gt;=$F16,T$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",U$5&gt;=$F16,U$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",U$5&gt;=$F16,U$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",V$5&gt;=$F16,V$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",V$5&gt;=$F16,V$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",X$5&gt;=$F16,X$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",X$5&gt;=$F16,X$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",Y$5&gt;=$F16,Y$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",Y$5&gt;=$F16,Y$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",Z$5&gt;=$F16,Z$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",Z$5&gt;=$F16,Z$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AA$5&gt;=$F16,AA$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AA$5&gt;=$F16,AA$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AB$5&gt;=$F16,AB$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AB$5&gt;=$F16,AB$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AC$5&gt;=$F16,AC$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AC$5&gt;=$F16,AC$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AD$5&gt;=$F16,AD$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AD$5&gt;=$F16,AD$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AE$5&gt;=$F16,AE$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AE$5&gt;=$F16,AE$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AF$5&gt;=$F16,AF$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AF$5&gt;=$F16,AF$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AG$5&gt;=$F16,AG$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AG$5&gt;=$F16,AG$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AH$5&gt;=$F16,AH$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AH$5&gt;=$F16,AH$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AI$5&gt;=$F16,AI$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AI$5&gt;=$F16,AI$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AJ$5&gt;=$F16,AJ$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AJ$5&gt;=$F16,AJ$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AK$5&gt;=$F16,AK$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AK$5&gt;=$F16,AK$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AL$5&gt;=$F16,AL$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AL$5&gt;=$F16,AL$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AM$5&gt;=$F16,AM$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AM$5&gt;=$F16,AM$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AN$5&gt;=$F16,AN$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AN$5&gt;=$F16,AN$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AO$5&gt;=$F16,AO$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AO$5&gt;=$F16,AO$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AP$5&gt;=$F16,AP$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AP$5&gt;=$F16,AP$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AQ$5&gt;=$F16,AQ$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AQ$5&gt;=$F16,AQ$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AR$5&gt;=$F16,AR$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AR$5&gt;=$F16,AR$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AS$5&gt;=$F16,AS$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AS$5&gt;=$F16,AS$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AT$5&gt;=$F16,AT$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AT$5&gt;=$F16,AT$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AU$5&gt;=$F16,AU$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AU$5&gt;=$F16,AU$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AV$5&gt;=$F16,AV$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AV$5&gt;=$F16,AV$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AW$5&gt;=$F16,AW$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AW$5&gt;=$F16,AW$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AX$5&gt;=$F16,AX$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AX$5&gt;=$F16,AX$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AY$5&gt;=$F16,AY$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AY$5&gt;=$F16,AY$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",AZ$5&gt;=$F16,AZ$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",AZ$5&gt;=$F16,AZ$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BA$5&gt;=$F16,BA$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BA$5&gt;=$F16,BA$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BB$5&gt;=$F16,BB$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BB$5&gt;=$F16,BB$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BC$5&gt;=$F16,BC$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BC$5&gt;=$F16,BC$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BD$5&gt;=$F16,BD$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BD$5&gt;=$F16,BD$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BE$5&gt;=$F16,BE$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BE$5&gt;=$F16,BE$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BF$5&gt;=$F16,BF$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BF$5&gt;=$F16,BF$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BG$5&gt;=$F16,BG$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BG$5&gt;=$F16,BG$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BH$5&gt;=$F16,BH$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BH$5&gt;=$F16,BH$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BI$5&gt;=$F16,BI$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BI$5&gt;=$F16,BI$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BJ$5&gt;=$F16,BJ$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BJ$5&gt;=$F16,BJ$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BK$5&gt;=$F16,BK$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BK$5&gt;=$F16,BK$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL16" s="37" t="str">
-        <f ca="1">IF(AND($C16="Mål",BL$5&gt;=$F16,BL$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milepæl",BL$5&gt;=$F16,BL$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="51" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="30">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="31">
-        <f>F16+5</f>
-        <v>44269</v>
+        <f>F16+G16</f>
+        <v>44271</v>
       </c>
       <c r="G17" s="32">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",P$5&gt;=$F17,P$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",P$5&gt;=$F17,P$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",Q$5&gt;=$F17,Q$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",Q$5&gt;=$F17,Q$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",S$5&gt;=$F17,S$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",S$5&gt;=$F17,S$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",T$5&gt;=$F17,T$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",T$5&gt;=$F17,T$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",U$5&gt;=$F17,U$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",U$5&gt;=$F17,U$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",V$5&gt;=$F17,V$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",V$5&gt;=$F17,V$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",W$5&gt;=$F17,W$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",W$5&gt;=$F17,W$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL17" s="37" t="str">
-        <f ca="1">IF(AND($C17="Mål",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milepæl",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="51" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.33</v>
+      </c>
       <c r="F18" s="31">
-        <f>F17+2</f>
+        <f>F17</f>
         <v>44271</v>
       </c>
       <c r="G18" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",S$5&gt;=$F18,S$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",S$5&gt;=$F18,S$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",T$5&gt;=$F18,T$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",T$5&gt;=$F18,T$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",U$5&gt;=$F18,U$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",U$5&gt;=$F18,U$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",V$5&gt;=$F18,V$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",V$5&gt;=$F18,V$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",W$5&gt;=$F18,W$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",W$5&gt;=$F18,W$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X18" s="37">
-        <f ca="1">IF(AND($C18="Mål",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),1,""))</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="X18" s="37" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
       </c>
       <c r="Y18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL18" s="37" t="str">
-        <f ca="1">IF(AND($C18="Mål",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milepæl",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="30"/>
+        <v>54</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0</v>
+      </c>
       <c r="F19" s="31">
-        <f>F18+1</f>
-        <v>44272</v>
+        <f>F18+G18-1</f>
+        <v>44274</v>
       </c>
       <c r="G19" s="32">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Y19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AA19" s="37">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="AB19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BH19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BI19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BJ19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BK19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BL19" s="37" t="str">
-        <f ca="1">IF(AND($C19="Mål",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milepæl",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="52" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -5111,470 +4979,474 @@
       <c r="G20" s="20"/>
       <c r="H20" s="26"/>
       <c r="I20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="I20:R32" ca="1" si="12">IF(AND($C20="Mål",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="J20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="S20:AB32" ca="1" si="13">IF(AND($C20="Mål",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="T20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="AC20:AL32" ca="1" si="14">IF(AND($C20="Mål",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AD20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="AM20:AV32" ca="1" si="15">IF(AND($C20="Mål",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AN20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="AW20:BF32" ca="1" si="16">IF(AND($C20="Mål",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AX20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="BG20:BL32" ca="1" si="17">IF(AND($C20="Mål",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BH20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL20" s="37" t="str">
-        <f ca="1">IF(AND($C20="Mål",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milepæl",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="51" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="30"/>
+        <v>27</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0</v>
+      </c>
       <c r="F21" s="31">
-        <f>F10+15</f>
-        <v>44271</v>
+        <f>F19+G19</f>
+        <v>44275</v>
       </c>
       <c r="G21" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL21" s="37" t="str">
-        <f ca="1">IF(AND($C21="Mål",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milepæl",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -5584,240 +5456,240 @@
         <v>16</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31">
         <f>F21+3</f>
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="G22" s="32">
         <v>14</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",J$5&gt;=$F22,J$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",J$5&gt;=$F22,J$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",K$5&gt;=$F22,K$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",K$5&gt;=$F22,K$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",L$5&gt;=$F22,L$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",L$5&gt;=$F22,L$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",M$5&gt;=$F22,M$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",M$5&gt;=$F22,M$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",N$5&gt;=$F22,N$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",N$5&gt;=$F22,N$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",O$5&gt;=$F22,O$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",O$5&gt;=$F22,O$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",P$5&gt;=$F22,P$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",P$5&gt;=$F22,P$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",Q$5&gt;=$F22,Q$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",Q$5&gt;=$F22,Q$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",R$5&gt;=$F22,R$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",R$5&gt;=$F22,R$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",S$5&gt;=$F22,S$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",S$5&gt;=$F22,S$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",T$5&gt;=$F22,T$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",T$5&gt;=$F22,T$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",W$5&gt;=$F22,W$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",W$5&gt;=$F22,W$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",Z$5&gt;=$F22,Z$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",Z$5&gt;=$F22,Z$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AA$5&gt;=$F22,AA$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AA$5&gt;=$F22,AA$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AB$5&gt;=$F22,AB$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AB$5&gt;=$F22,AB$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AC$5&gt;=$F22,AC$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AC$5&gt;=$F22,AC$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AD$5&gt;=$F22,AD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AD$5&gt;=$F22,AD$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AG$5&gt;=$F22,AG$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AG$5&gt;=$F22,AG$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AH$5&gt;=$F22,AH$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AH$5&gt;=$F22,AH$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AI$5&gt;=$F22,AI$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AI$5&gt;=$F22,AI$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AJ$5&gt;=$F22,AJ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AJ$5&gt;=$F22,AJ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AK$5&gt;=$F22,AK$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AK$5&gt;=$F22,AK$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AL$5&gt;=$F22,AL$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AL$5&gt;=$F22,AL$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AM$5&gt;=$F22,AM$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AM$5&gt;=$F22,AM$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AN$5&gt;=$F22,AN$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AN$5&gt;=$F22,AN$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AP$5&gt;=$F22,AP$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AP$5&gt;=$F22,AP$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AQ$5&gt;=$F22,AQ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AQ$5&gt;=$F22,AQ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AR$5&gt;=$F22,AR$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AR$5&gt;=$F22,AR$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AS$5&gt;=$F22,AS$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AS$5&gt;=$F22,AS$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AT$5&gt;=$F22,AT$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AT$5&gt;=$F22,AT$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AU$5&gt;=$F22,AU$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AU$5&gt;=$F22,AU$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AV$5&gt;=$F22,AV$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AV$5&gt;=$F22,AV$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AW$5&gt;=$F22,AW$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AW$5&gt;=$F22,AW$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AX$5&gt;=$F22,AX$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AX$5&gt;=$F22,AX$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AY$5&gt;=$F22,AY$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AY$5&gt;=$F22,AY$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",AZ$5&gt;=$F22,AZ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",AZ$5&gt;=$F22,AZ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BA$5&gt;=$F22,BA$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BA$5&gt;=$F22,BA$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BB$5&gt;=$F22,BB$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BB$5&gt;=$F22,BB$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BC$5&gt;=$F22,BC$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BC$5&gt;=$F22,BC$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BE$5&gt;=$F22,BE$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BE$5&gt;=$F22,BE$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BF$5&gt;=$F22,BF$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BF$5&gt;=$F22,BF$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BG$5&gt;=$F22,BG$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BG$5&gt;=$F22,BG$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BH$5&gt;=$F22,BH$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BH$5&gt;=$F22,BH$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BI$5&gt;=$F22,BI$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BI$5&gt;=$F22,BI$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BJ$5&gt;=$F22,BJ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BJ$5&gt;=$F22,BJ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BK$5&gt;=$F22,BK$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BK$5&gt;=$F22,BK$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL22" s="37" t="str">
-        <f ca="1">IF(AND($C22="Mål",BL$5&gt;=$F22,BL$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milepæl",BL$5&gt;=$F22,BL$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -5827,240 +5699,240 @@
         <v>17</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="30"/>
       <c r="F23" s="31">
         <f>F22+15</f>
-        <v>44289</v>
+        <v>44293</v>
       </c>
       <c r="G23" s="32">
         <v>6</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",J$5&gt;=$F23,J$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",J$5&gt;=$F23,J$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",K$5&gt;=$F23,K$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",K$5&gt;=$F23,K$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",L$5&gt;=$F23,L$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",L$5&gt;=$F23,L$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",M$5&gt;=$F23,M$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",M$5&gt;=$F23,M$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",N$5&gt;=$F23,N$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",N$5&gt;=$F23,N$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",O$5&gt;=$F23,O$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",O$5&gt;=$F23,O$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",P$5&gt;=$F23,P$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",P$5&gt;=$F23,P$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",Q$5&gt;=$F23,Q$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",Q$5&gt;=$F23,Q$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",R$5&gt;=$F23,R$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",R$5&gt;=$F23,R$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",S$5&gt;=$F23,S$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",S$5&gt;=$F23,S$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",T$5&gt;=$F23,T$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",T$5&gt;=$F23,T$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",U$5&gt;=$F23,U$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",U$5&gt;=$F23,U$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",V$5&gt;=$F23,V$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",V$5&gt;=$F23,V$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",W$5&gt;=$F23,W$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",W$5&gt;=$F23,W$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",Z$5&gt;=$F23,Z$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",Z$5&gt;=$F23,Z$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AA$5&gt;=$F23,AA$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AA$5&gt;=$F23,AA$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AB$5&gt;=$F23,AB$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AB$5&gt;=$F23,AB$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AC$5&gt;=$F23,AC$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AC$5&gt;=$F23,AC$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AD$5&gt;=$F23,AD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AD$5&gt;=$F23,AD$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AE$5&gt;=$F23,AE$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AE$5&gt;=$F23,AE$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AF$5&gt;=$F23,AF$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AF$5&gt;=$F23,AF$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AG$5&gt;=$F23,AG$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AG$5&gt;=$F23,AG$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AH$5&gt;=$F23,AH$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AH$5&gt;=$F23,AH$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AI$5&gt;=$F23,AI$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AI$5&gt;=$F23,AI$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AJ$5&gt;=$F23,AJ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AJ$5&gt;=$F23,AJ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AK$5&gt;=$F23,AK$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AK$5&gt;=$F23,AK$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AL$5&gt;=$F23,AL$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AL$5&gt;=$F23,AL$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AM$5&gt;=$F23,AM$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AM$5&gt;=$F23,AM$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AN$5&gt;=$F23,AN$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AN$5&gt;=$F23,AN$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AP$5&gt;=$F23,AP$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AP$5&gt;=$F23,AP$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AQ$5&gt;=$F23,AQ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AQ$5&gt;=$F23,AQ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AR$5&gt;=$F23,AR$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AR$5&gt;=$F23,AR$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AS$5&gt;=$F23,AS$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AS$5&gt;=$F23,AS$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AT$5&gt;=$F23,AT$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AT$5&gt;=$F23,AT$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AU$5&gt;=$F23,AU$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AU$5&gt;=$F23,AU$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AV$5&gt;=$F23,AV$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AV$5&gt;=$F23,AV$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AW$5&gt;=$F23,AW$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AW$5&gt;=$F23,AW$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AX$5&gt;=$F23,AX$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AX$5&gt;=$F23,AX$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AY$5&gt;=$F23,AY$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AY$5&gt;=$F23,AY$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",AZ$5&gt;=$F23,AZ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",AZ$5&gt;=$F23,AZ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BA$5&gt;=$F23,BA$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BA$5&gt;=$F23,BA$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BB$5&gt;=$F23,BB$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BB$5&gt;=$F23,BB$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BC$5&gt;=$F23,BC$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BC$5&gt;=$F23,BC$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BE$5&gt;=$F23,BE$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BE$5&gt;=$F23,BE$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BF$5&gt;=$F23,BF$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BF$5&gt;=$F23,BF$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BG$5&gt;=$F23,BG$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BG$5&gt;=$F23,BG$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BH$5&gt;=$F23,BH$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BH$5&gt;=$F23,BH$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BI$5&gt;=$F23,BI$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BI$5&gt;=$F23,BI$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BJ$5&gt;=$F23,BJ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BJ$5&gt;=$F23,BJ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BK$5&gt;=$F23,BK$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BK$5&gt;=$F23,BK$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL23" s="37" t="str">
-        <f ca="1">IF(AND($C23="Mål",BL$5&gt;=$F23,BL$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milepæl",BL$5&gt;=$F23,BL$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -6070,240 +5942,240 @@
         <v>18</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="30"/>
       <c r="F24" s="31">
-        <f>F18+22</f>
-        <v>44293</v>
+        <f>F19+22</f>
+        <v>44296</v>
       </c>
       <c r="G24" s="32">
         <v>3</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT24" s="37">
-        <f ca="1">IF(AND($C24="Mål",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AT24" s="37" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AU24" s="37" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AV24" s="37" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AW24" s="37">
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
-      <c r="AU24" s="37">
-        <f ca="1">IF(AND($C24="Mål",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),1,""))</f>
+      <c r="AX24" s="37">
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
-      <c r="AV24" s="37">
-        <f ca="1">IF(AND($C24="Mål",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),1,""))</f>
+      <c r="AY24" s="37">
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
-      <c r="AW24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
-      </c>
       <c r="AZ24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL24" s="37" t="str">
-        <f ca="1">IF(AND($C24="Mål",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milepæl",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -6313,247 +6185,247 @@
         <v>19</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="30"/>
       <c r="F25" s="31">
         <f>F24-19</f>
-        <v>44274</v>
+        <v>44277</v>
       </c>
       <c r="G25" s="32">
         <v>19</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL25" s="37" t="str">
-        <f ca="1">IF(AND($C25="Mål",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milepæl",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -6562,227 +6434,227 @@
       <c r="G26" s="20"/>
       <c r="H26" s="26"/>
       <c r="I26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL26" s="37" t="str">
-        <f ca="1">IF(AND($C26="Mål",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milepæl",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -6796,234 +6668,234 @@
       <c r="E27" s="30"/>
       <c r="F27" s="31">
         <f>F24+3</f>
-        <v>44296</v>
+        <v>44299</v>
       </c>
       <c r="G27" s="32">
         <v>15</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL27" s="37" t="str">
-        <f ca="1">IF(AND($C27="Mål",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milepæl",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -7043,227 +6915,227 @@
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL28" s="37" t="str">
-        <f ca="1">IF(AND($C28="Mål",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milepæl",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -7273,7 +7145,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="30"/>
@@ -7285,227 +7157,227 @@
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL29" s="37" t="str">
-        <f ca="1">IF(AND($C29="Mål",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milepæl",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -7521,227 +7393,227 @@
       <c r="G30" s="32"/>
       <c r="H30" s="26"/>
       <c r="I30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL30" s="37" t="str">
-        <f ca="1">IF(AND($C30="Mål",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milepæl",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -7757,227 +7629,227 @@
       <c r="G31" s="32"/>
       <c r="H31" s="26"/>
       <c r="I31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL31" s="37" t="str">
-        <f ca="1">IF(AND($C31="Mål",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milepæl",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -7993,227 +7865,227 @@
       <c r="G32" s="32"/>
       <c r="H32" s="26"/>
       <c r="I32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="J32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AD32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AE32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL32" s="37" t="str">
-        <f ca="1">IF(AND($C32="Mål",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milepæl",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -8222,7 +8094,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -8362,7 +8234,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Rulleinterval" prompt="Hvis du ændrer dette tal, ruller visningen Gantt-diagrammet." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C32 C10:C13 C15:C19 C21:C25" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C32 C10:C14 C16:C19 C21:C25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Mål,Milepæl,På rette spor, Lav risiko, Mellem risiko, Høj risiko"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8372,9 +8244,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F17" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8446,7 +8315,7 @@
           <xm:sqref>I33:BL33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="85" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="100" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8487,27 +8356,27 @@
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356FDF2-F1AE-42CD-AB14-292726F1FE4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481E6CC5-8D59-4172-AEC0-154CB80D0C40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,6 +805,32 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -976,32 +1002,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1324,12 +1324,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Beskrivelse af milepæle" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategori" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tildelt til" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Beskrivelse af milepæle" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategori" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tildelt til" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Gang"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="10" dataCellStyle="Dato"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Antal dage" totalsRowFunction="sum" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="1" dataCellStyle="Dato"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Antal dage" totalsRowFunction="sum" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Gantt-tabeltypografi" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1608,7 +1608,7 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -8194,39 +8194,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL33">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL32">
-    <cfRule type="expression" dxfId="4" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>AND($C8="Lav risiko",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
       <formula>AND($C8="Høj risiko",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
       <formula>AND($C8="På rette spor",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
       <formula>AND($C8="Mellem risiko",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
